--- a/Assets/Resources/Great Days/greatdays.xlsx
+++ b/Assets/Resources/Great Days/greatdays.xlsx
@@ -5,38 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\College\Software - Project 2 COMP313\Rhythm-Road\Assets\Resources\Great Days\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Rhythm-Road\Rhythm-Road\Assets\Resources\Great Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3501EB9-2720-4026-A228-2957FB7593DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C260C4-9F92-46EC-A2A1-1528533F650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30000" yWindow="5715" windowWidth="21600" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26520" yWindow="3165" windowWidth="24825" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="greatdays" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="5">
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -877,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:C113"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D65" si="0">A2/1000</f>
+        <f t="shared" ref="D2:D79" si="0">A2/1000</f>
         <v>0.92300000000000004</v>
       </c>
       <c r="E2">
@@ -934,7 +933,7 @@
         <v>1.276</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">D3-D2</f>
+        <f t="shared" ref="E3:E80" si="1">D3-D2</f>
         <v>0.35299999999999998</v>
       </c>
     </row>
@@ -1285,7 +1284,7 @@
         <v>16100</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1301,188 +1300,188 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>17512</v>
+        <v>16100</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>17.512</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>1.411999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>18923</v>
+        <v>16100</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>18.922999999999998</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>1.4109999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20335</v>
+        <v>17512</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>20.335000000000001</v>
+        <v>17.512</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>1.4120000000000026</v>
+        <v>1.411999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21747</v>
+        <v>17512</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>21.747</v>
+        <v>17.512</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>1.411999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>23159</v>
+        <v>17512</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>23.158999999999999</v>
+        <v>17.512</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>1.411999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>23512</v>
+        <v>18923</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>23.512</v>
+        <v>18.922999999999998</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>0.35300000000000153</v>
+        <v>1.4109999999999978</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>24570</v>
+        <v>18923</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>24.57</v>
+        <v>18.922999999999998</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>1.0579999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>24923</v>
+        <v>18923</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>24.922999999999998</v>
+        <v>18.922999999999998</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>0.35299999999999798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>25982</v>
+        <v>20335</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>25.981999999999999</v>
+        <v>20.335000000000001</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>1.0590000000000011</v>
+        <v>1.4120000000000026</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>27394</v>
+        <v>21747</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>27.393999999999998</v>
+        <v>21.747</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
@@ -1491,159 +1490,159 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>28100</v>
+        <v>21747</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>28.1</v>
+        <v>21.747</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>0.70600000000000307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>28276</v>
+        <v>21747</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>28.276</v>
+        <v>21.747</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>0.17599999999999838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>28453</v>
+        <v>23159</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>28.452999999999999</v>
+        <v>23.158999999999999</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>0.1769999999999996</v>
+        <v>1.411999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>28629</v>
+        <v>23512</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>28.629000000000001</v>
+        <v>23.512</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>0.17600000000000193</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>28806</v>
+        <v>24570</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>28.806000000000001</v>
+        <v>24.57</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>0.1769999999999996</v>
+        <v>1.0579999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>30218</v>
+        <v>24923</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>30.218</v>
+        <v>24.922999999999998</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>1.411999999999999</v>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>30923</v>
+        <v>25982</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>30.922999999999998</v>
+        <v>25.981999999999999</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>0.70499999999999829</v>
+        <v>1.0590000000000011</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>31100</v>
+        <v>27394</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>31.1</v>
+        <v>27.393999999999998</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>0.17700000000000315</v>
+        <v>1.411999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>31276</v>
+        <v>28100</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -1653,16 +1652,16 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>31.276</v>
+        <v>28.1</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>0.17599999999999838</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>31453</v>
+        <v>28276</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -1672,16 +1671,16 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>31.452999999999999</v>
+        <v>28.276</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>0.1769999999999996</v>
+        <v>0.17599999999999838</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>31629</v>
+        <v>28453</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -1691,73 +1690,73 @@
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>31.629000000000001</v>
+        <v>28.452999999999999</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>0.17600000000000193</v>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>33041</v>
+        <v>28629</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>33.040999999999997</v>
+        <v>28.629000000000001</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>1.4119999999999955</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>34453</v>
+        <v>28806</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>34.453000000000003</v>
+        <v>28.806000000000001</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>1.4120000000000061</v>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>35688</v>
+        <v>30218</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>35.688000000000002</v>
+        <v>30.218</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>1.2349999999999994</v>
+        <v>1.411999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>36218</v>
+        <v>30923</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -1767,16 +1766,16 @@
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>36.218000000000004</v>
+        <v>30.922999999999998</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>0.53000000000000114</v>
+        <v>0.70499999999999829</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>36570</v>
+        <v>31100</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -1786,16 +1785,16 @@
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>36.57</v>
+        <v>31.1</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>0.35199999999999676</v>
+        <v>0.17700000000000315</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>36747</v>
+        <v>31276</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -1805,16 +1804,16 @@
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>36.747</v>
+        <v>31.276</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>0.1769999999999996</v>
+        <v>0.17599999999999838</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>36923</v>
+        <v>31453</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -1824,16 +1823,16 @@
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>36.923000000000002</v>
+        <v>31.452999999999999</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>0.17600000000000193</v>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>37100</v>
+        <v>31629</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -1843,225 +1842,225 @@
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>37.1</v>
+        <v>31.629000000000001</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>0.1769999999999996</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>37276</v>
+        <v>33041</v>
       </c>
       <c r="B52" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>37.276000000000003</v>
+        <v>33.040999999999997</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>0.17600000000000193</v>
+        <v>1.4119999999999955</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>39747</v>
+        <v>33041</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>39.747</v>
+        <v>33.040999999999997</v>
       </c>
       <c r="E53">
         <f t="shared" si="1"/>
-        <v>2.4709999999999965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>40100</v>
+        <v>33041</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>40.1</v>
+        <v>33.040999999999997</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
-        <v>0.35300000000000153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>41512</v>
+        <v>34453</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>41.512</v>
+        <v>34.453000000000003</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
-        <v>1.411999999999999</v>
+        <v>1.4120000000000061</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>42923</v>
+        <v>34453</v>
       </c>
       <c r="B56" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>42.923000000000002</v>
+        <v>34.453000000000003</v>
       </c>
       <c r="E56">
         <f t="shared" si="1"/>
-        <v>1.4110000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>43453</v>
+        <v>34453</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>43.453000000000003</v>
+        <v>34.453000000000003</v>
       </c>
       <c r="E57">
         <f t="shared" si="1"/>
-        <v>0.53000000000000114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>44335</v>
+        <v>35688</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>44.335000000000001</v>
+        <v>35.688000000000002</v>
       </c>
       <c r="E58">
         <f t="shared" si="1"/>
-        <v>0.8819999999999979</v>
+        <v>1.2349999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>45747</v>
+        <v>36218</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>45.747</v>
+        <v>36.218000000000004</v>
       </c>
       <c r="E59">
         <f t="shared" si="1"/>
-        <v>1.411999999999999</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>47159</v>
+        <v>36570</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>47.158999999999999</v>
+        <v>36.57</v>
       </c>
       <c r="E60">
         <f t="shared" si="1"/>
-        <v>1.411999999999999</v>
+        <v>0.35199999999999676</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>48570</v>
+        <v>36747</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>48.57</v>
+        <v>36.747</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
-        <v>1.4110000000000014</v>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>49806</v>
+        <v>36923</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>49.805999999999997</v>
+        <v>36.923000000000002</v>
       </c>
       <c r="E62">
         <f t="shared" si="1"/>
-        <v>1.2359999999999971</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>50335</v>
+        <v>37100</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -2071,16 +2070,16 @@
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>50.335000000000001</v>
+        <v>37.1</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
-        <v>0.52900000000000347</v>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>50512</v>
+        <v>37276</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -2090,54 +2089,54 @@
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>50.512</v>
+        <v>37.276000000000003</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
-        <v>0.1769999999999996</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>51394</v>
+        <v>39747</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>51.393999999999998</v>
+        <v>39.747</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
-        <v>0.8819999999999979</v>
+        <v>2.4709999999999965</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>52806</v>
+        <v>40100</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D113" si="2">A66/1000</f>
-        <v>52.805999999999997</v>
+        <f t="shared" si="0"/>
+        <v>40.1</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
-        <v>1.411999999999999</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>52982</v>
+        <v>41512</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
@@ -2146,886 +2145,1167 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
-        <v>52.981999999999999</v>
+        <f t="shared" si="0"/>
+        <v>41.512</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E113" si="3">D67-D66</f>
-        <v>0.17600000000000193</v>
+        <f t="shared" si="1"/>
+        <v>1.411999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>42923</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>42.923000000000002</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>1.4110000000000014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>43453</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>43.453000000000003</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>44335</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>44.335000000000001</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>0.8819999999999979</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>45747</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>45.747</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>1.411999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>45747</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="0"/>
+        <v>45.747</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>45747</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="0"/>
+        <v>45.747</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>47159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="0"/>
+        <v>47.158999999999999</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>1.411999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>48570</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="0"/>
+        <v>48.57</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>1.4110000000000014</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>49806</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="0"/>
+        <v>49.805999999999997</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>1.2359999999999971</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>50335</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="0"/>
+        <v>50.335000000000001</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>0.52900000000000347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>50512</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="0"/>
+        <v>50.512</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>0.1769999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>51394</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="0"/>
+        <v>51.393999999999998</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>0.8819999999999979</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>52806</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:D128" si="2">A80/1000</f>
+        <v>52.805999999999997</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>1.411999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>52982</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>52.981999999999999</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ref="E81:E127" si="3">D81-D80</f>
+        <v>0.17600000000000193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>53512</v>
       </c>
-      <c r="B68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
         <f t="shared" si="2"/>
         <v>53.512</v>
       </c>
-      <c r="E68">
+      <c r="E82">
         <f t="shared" si="3"/>
         <v>0.53000000000000114</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>53688</v>
       </c>
-      <c r="B69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
         <f t="shared" si="2"/>
         <v>53.688000000000002</v>
       </c>
-      <c r="E69">
+      <c r="E83">
         <f t="shared" si="3"/>
         <v>0.17600000000000193</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>53865</v>
       </c>
-      <c r="B70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
         <f t="shared" si="2"/>
         <v>53.865000000000002</v>
       </c>
-      <c r="E70">
+      <c r="E84">
         <f t="shared" si="3"/>
         <v>0.1769999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>54041</v>
       </c>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
         <f t="shared" si="2"/>
         <v>54.040999999999997</v>
       </c>
-      <c r="E71">
+      <c r="E85">
         <f t="shared" si="3"/>
         <v>0.17599999999999483</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>54218</v>
       </c>
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
         <f t="shared" si="2"/>
         <v>54.218000000000004</v>
       </c>
-      <c r="E72">
+      <c r="E86">
         <f t="shared" si="3"/>
         <v>0.17700000000000671</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>54570</v>
       </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
         <f t="shared" si="2"/>
         <v>54.57</v>
       </c>
-      <c r="E73">
+      <c r="E87">
         <f t="shared" si="3"/>
         <v>0.35199999999999676</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>55453</v>
       </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
         <f t="shared" si="2"/>
         <v>55.453000000000003</v>
       </c>
-      <c r="E74">
+      <c r="E88">
         <f t="shared" si="3"/>
         <v>0.88300000000000267</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>57041</v>
       </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="2"/>
         <v>57.040999999999997</v>
       </c>
-      <c r="E75">
+      <c r="E89">
         <f t="shared" si="3"/>
         <v>1.5879999999999939</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>57570</v>
       </c>
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="2"/>
         <v>57.57</v>
       </c>
-      <c r="E76">
+      <c r="E90">
         <f t="shared" si="3"/>
         <v>0.52900000000000347</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>58453</v>
       </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
         <f t="shared" si="2"/>
         <v>58.453000000000003</v>
       </c>
-      <c r="E77">
+      <c r="E91">
         <f t="shared" si="3"/>
         <v>0.88300000000000267</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>59159</v>
       </c>
-      <c r="B78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
         <f t="shared" si="2"/>
         <v>59.158999999999999</v>
       </c>
-      <c r="E78">
+      <c r="E92">
         <f t="shared" si="3"/>
         <v>0.70599999999999596</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>59335</v>
       </c>
-      <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="2"/>
         <v>59.335000000000001</v>
       </c>
-      <c r="E79">
+      <c r="E93">
         <f t="shared" si="3"/>
         <v>0.17600000000000193</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>59865</v>
       </c>
-      <c r="B80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
         <f t="shared" si="2"/>
         <v>59.865000000000002</v>
       </c>
-      <c r="E80">
+      <c r="E94">
         <f t="shared" si="3"/>
         <v>0.53000000000000114</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>60218</v>
       </c>
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="2"/>
         <v>60.218000000000004</v>
       </c>
-      <c r="E81">
+      <c r="E95">
         <f t="shared" si="3"/>
         <v>0.35300000000000153</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>61100</v>
       </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="2"/>
         <v>61.1</v>
       </c>
-      <c r="E82">
+      <c r="E96">
         <f t="shared" si="3"/>
         <v>0.8819999999999979</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>62688</v>
       </c>
-      <c r="B83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="2"/>
         <v>62.688000000000002</v>
       </c>
-      <c r="E83">
+      <c r="E97">
         <f t="shared" si="3"/>
         <v>1.588000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>63570</v>
       </c>
-      <c r="B84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="2"/>
         <v>63.57</v>
       </c>
-      <c r="E84">
+      <c r="E98">
         <f t="shared" si="3"/>
         <v>0.8819999999999979</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>64100</v>
       </c>
-      <c r="B85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
         <f t="shared" si="2"/>
         <v>64.099999999999994</v>
       </c>
-      <c r="E85">
+      <c r="E99">
         <f t="shared" si="3"/>
         <v>0.52999999999999403</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>64453</v>
       </c>
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
         <f t="shared" si="2"/>
         <v>64.453000000000003</v>
       </c>
-      <c r="E86">
+      <c r="E100">
         <f t="shared" si="3"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>64629</v>
       </c>
-      <c r="B87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
         <f t="shared" si="2"/>
         <v>64.629000000000005</v>
       </c>
-      <c r="E87">
+      <c r="E101">
         <f t="shared" si="3"/>
         <v>0.17600000000000193</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>64806</v>
       </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
         <f t="shared" si="2"/>
         <v>64.805999999999997</v>
       </c>
-      <c r="E88">
+      <c r="E102">
         <f t="shared" si="3"/>
         <v>0.1769999999999925</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>64982</v>
       </c>
-      <c r="B89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
         <f t="shared" si="2"/>
         <v>64.981999999999999</v>
       </c>
-      <c r="E89">
+      <c r="E103">
         <f t="shared" si="3"/>
         <v>0.17600000000000193</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>65159</v>
       </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <f t="shared" si="2"/>
         <v>65.159000000000006</v>
       </c>
-      <c r="E90">
+      <c r="E104">
         <f t="shared" si="3"/>
         <v>0.17700000000000671</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>65247</v>
       </c>
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
         <f t="shared" si="2"/>
         <v>65.247</v>
       </c>
-      <c r="E91">
+      <c r="E105">
         <f t="shared" si="3"/>
         <v>8.7999999999993861E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>65335</v>
       </c>
-      <c r="B92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
         <f t="shared" si="2"/>
         <v>65.334999999999994</v>
       </c>
-      <c r="E92">
+      <c r="E106">
         <f t="shared" si="3"/>
         <v>8.7999999999993861E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>65423</v>
       </c>
-      <c r="B93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
         <f t="shared" si="2"/>
         <v>65.423000000000002</v>
       </c>
-      <c r="E93">
+      <c r="E107">
         <f t="shared" si="3"/>
         <v>8.8000000000008072E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>65512</v>
       </c>
-      <c r="B94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
         <f t="shared" si="2"/>
         <v>65.512</v>
       </c>
-      <c r="E94">
+      <c r="E108">
         <f t="shared" si="3"/>
         <v>8.8999999999998636E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>65865</v>
       </c>
-      <c r="B95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
         <f t="shared" si="2"/>
         <v>65.864999999999995</v>
       </c>
-      <c r="E95">
+      <c r="E109">
         <f t="shared" si="3"/>
         <v>0.35299999999999443</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>66747</v>
       </c>
-      <c r="B96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
         <f t="shared" si="2"/>
         <v>66.747</v>
       </c>
-      <c r="E96">
+      <c r="E110">
         <f t="shared" si="3"/>
         <v>0.882000000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>68335</v>
       </c>
-      <c r="B97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97">
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
         <f t="shared" si="2"/>
         <v>68.334999999999994</v>
       </c>
-      <c r="E97">
+      <c r="E111">
         <f t="shared" si="3"/>
         <v>1.5879999999999939</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>68865</v>
       </c>
-      <c r="B98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
         <f t="shared" si="2"/>
         <v>68.864999999999995</v>
       </c>
-      <c r="E98">
+      <c r="E112">
         <f t="shared" si="3"/>
         <v>0.53000000000000114</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>69747</v>
       </c>
-      <c r="B99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99">
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
         <f t="shared" si="2"/>
         <v>69.747</v>
       </c>
-      <c r="E99">
+      <c r="E113">
         <f t="shared" si="3"/>
         <v>0.882000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>70276</v>
       </c>
-      <c r="B100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
         <f t="shared" si="2"/>
         <v>70.275999999999996</v>
       </c>
-      <c r="E100">
+      <c r="E114">
         <f t="shared" si="3"/>
         <v>0.52899999999999636</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>71159</v>
       </c>
-      <c r="B101" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
         <f t="shared" si="2"/>
         <v>71.159000000000006</v>
       </c>
-      <c r="E101">
+      <c r="E115">
         <f t="shared" si="3"/>
         <v>0.88300000000000978</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>72570</v>
       </c>
-      <c r="B102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
         <f t="shared" si="2"/>
         <v>72.569999999999993</v>
       </c>
-      <c r="E102">
+      <c r="E116">
         <f t="shared" si="3"/>
         <v>1.4109999999999872</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>72923</v>
       </c>
-      <c r="B103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
         <f t="shared" si="2"/>
         <v>72.923000000000002</v>
       </c>
-      <c r="E103">
+      <c r="E117">
         <f t="shared" si="3"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>73806</v>
       </c>
-      <c r="B104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
         <f t="shared" si="2"/>
         <v>73.805999999999997</v>
       </c>
-      <c r="E104">
+      <c r="E118">
         <f t="shared" si="3"/>
         <v>0.88299999999999557</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>74335</v>
       </c>
-      <c r="B105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
         <f t="shared" si="2"/>
         <v>74.334999999999994</v>
       </c>
-      <c r="E105">
+      <c r="E119">
         <f t="shared" si="3"/>
         <v>0.52899999999999636</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>75394</v>
       </c>
-      <c r="B106" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
         <f t="shared" si="2"/>
         <v>75.394000000000005</v>
       </c>
-      <c r="E106">
+      <c r="E120">
         <f t="shared" si="3"/>
         <v>1.0590000000000117</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>75570</v>
       </c>
-      <c r="B107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
         <f t="shared" si="2"/>
         <v>75.569999999999993</v>
       </c>
-      <c r="E107">
+      <c r="E121">
         <f t="shared" si="3"/>
         <v>0.17599999999998772</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>75747</v>
       </c>
-      <c r="B108" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
         <f t="shared" si="2"/>
         <v>75.747</v>
       </c>
-      <c r="E108">
+      <c r="E122">
         <f t="shared" si="3"/>
         <v>0.17700000000000671</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>75923</v>
       </c>
-      <c r="B109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
         <f t="shared" si="2"/>
         <v>75.923000000000002</v>
       </c>
-      <c r="E109">
+      <c r="E123">
         <f t="shared" si="3"/>
         <v>0.17600000000000193</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>76453</v>
       </c>
-      <c r="B110" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
         <f t="shared" si="2"/>
         <v>76.453000000000003</v>
       </c>
-      <c r="E110">
+      <c r="E124">
         <f t="shared" si="3"/>
         <v>0.53000000000000114</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>76629</v>
       </c>
-      <c r="B111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
         <f t="shared" si="2"/>
         <v>76.629000000000005</v>
       </c>
-      <c r="E111">
+      <c r="E125">
         <f t="shared" si="3"/>
         <v>0.17600000000000193</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>76718</v>
       </c>
-      <c r="B112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
         <f t="shared" si="2"/>
         <v>76.718000000000004</v>
       </c>
-      <c r="E112">
+      <c r="E126">
         <f t="shared" si="3"/>
         <v>8.8999999999998636E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>76806</v>
       </c>
-      <c r="B113" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
         <f t="shared" si="2"/>
         <v>76.805999999999997</v>
       </c>
-      <c r="E113">
+      <c r="E127">
         <f t="shared" si="3"/>
         <v>8.7999999999993861E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>77000</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3037,7 +3317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
